--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2045.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2045.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.156177660914493</v>
+        <v>1.293070316314697</v>
       </c>
       <c r="B1">
-        <v>2.500793592648533</v>
+        <v>2.044524431228638</v>
       </c>
       <c r="C1">
-        <v>5.774755175143826</v>
+        <v>5.447574615478516</v>
       </c>
       <c r="D1">
-        <v>2.439783647585718</v>
+        <v>1.911295056343079</v>
       </c>
       <c r="E1">
-        <v>1.213949814032212</v>
+        <v>1.098896980285645</v>
       </c>
     </row>
   </sheetData>
